--- a/RBD - Dummy/MP_Units.xlsx
+++ b/RBD - Dummy/MP_Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>CampaignTypeDuration</t>
   </si>
@@ -253,12 +253,18 @@
     <t>CHINA</t>
   </si>
   <si>
+    <t>CONGO (BRAZZAV)</t>
+  </si>
+  <si>
     <t>CÔTE D'IVOIRE</t>
   </si>
   <si>
     <t>DJIBOUTI</t>
   </si>
   <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
     <t>ETHIOPIA</t>
   </si>
   <si>
@@ -352,6 +358,9 @@
     <t>S.TOME,PRINCIPE</t>
   </si>
   <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
     <t>SENEGAL</t>
   </si>
   <si>
@@ -371,6 +380,9 @@
   </si>
   <si>
     <t>TOGO</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
   </si>
   <si>
     <t>TURKEY</t>
@@ -944,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI140"/>
+  <dimension ref="A1:AI144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
@@ -7831,14 +7843,14 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
         <v>37</v>
       </c>
       <c r="E73" t="s"/>
       <c r="F73" t="n">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="G73" s="3" t="n">
         <v>2958465</v>
@@ -7847,7 +7859,7 @@
       <c r="I73" t="s"/>
       <c r="J73" t="s"/>
       <c r="K73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L73" t="s">
         <v>65</v>
@@ -7893,7 +7905,7 @@
       </c>
       <c r="Z73" t="s"/>
       <c r="AA73" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB73" s="3" t="n">
         <v>1</v>
@@ -7902,19 +7914,17 @@
         <v>41</v>
       </c>
       <c r="AD73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE73" t="n">
         <v>2</v>
       </c>
-      <c r="AF73" t="s">
-        <v>55</v>
-      </c>
+      <c r="AF73" t="s"/>
       <c r="AG73" t="s">
         <v>42</v>
       </c>
       <c r="AH73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI73" t="s">
         <v>65</v>
@@ -7935,7 +7945,7 @@
       </c>
       <c r="E74" t="s"/>
       <c r="F74" t="n">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="G74" s="3" t="n">
         <v>2958465</v>
@@ -7944,7 +7954,7 @@
       <c r="I74" t="s"/>
       <c r="J74" t="s"/>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L74" t="s">
         <v>65</v>
@@ -7990,7 +8000,7 @@
       </c>
       <c r="Z74" t="s"/>
       <c r="AA74" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="AB74" s="3" t="n">
         <v>1</v>
@@ -7999,19 +8009,17 @@
         <v>41</v>
       </c>
       <c r="AD74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE74" t="n">
         <v>2</v>
       </c>
-      <c r="AF74" t="s">
-        <v>126</v>
-      </c>
+      <c r="AF74" t="s"/>
       <c r="AG74" t="s">
         <v>42</v>
       </c>
       <c r="AH74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI74" t="s">
         <v>65</v>
@@ -8032,7 +8040,7 @@
       </c>
       <c r="E75" t="s"/>
       <c r="F75" t="n">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="G75" s="3" t="n">
         <v>2958465</v>
@@ -8041,7 +8049,7 @@
       <c r="I75" t="s"/>
       <c r="J75" t="s"/>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L75" t="s">
         <v>65</v>
@@ -8053,7 +8061,7 @@
         <v>65</v>
       </c>
       <c r="O75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P75" t="s">
         <v>65</v>
@@ -8083,11 +8091,11 @@
         <v>0</v>
       </c>
       <c r="Y75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z75" t="s"/>
       <c r="AA75" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="AB75" s="3" t="n">
         <v>1</v>
@@ -8096,19 +8104,17 @@
         <v>41</v>
       </c>
       <c r="AD75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE75" t="n">
         <v>2</v>
       </c>
-      <c r="AF75" t="s">
-        <v>128</v>
-      </c>
+      <c r="AF75" t="s"/>
       <c r="AG75" t="s">
         <v>42</v>
       </c>
       <c r="AH75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI75" t="s">
         <v>65</v>
@@ -8129,7 +8135,7 @@
       </c>
       <c r="E76" t="s"/>
       <c r="F76" t="n">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="G76" s="3" t="n">
         <v>2958465</v>
@@ -8138,7 +8144,7 @@
       <c r="I76" t="s"/>
       <c r="J76" t="s"/>
       <c r="K76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L76" t="s">
         <v>65</v>
@@ -8150,7 +8156,7 @@
         <v>65</v>
       </c>
       <c r="O76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P76" t="s">
         <v>65</v>
@@ -8180,11 +8186,11 @@
         <v>0</v>
       </c>
       <c r="Y76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z76" t="s"/>
       <c r="AA76" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="AB76" s="3" t="n">
         <v>1</v>
@@ -8193,19 +8199,17 @@
         <v>41</v>
       </c>
       <c r="AD76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE76" t="n">
         <v>2</v>
       </c>
-      <c r="AF76" t="s">
-        <v>130</v>
-      </c>
+      <c r="AF76" t="s"/>
       <c r="AG76" t="s">
         <v>42</v>
       </c>
       <c r="AH76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI76" t="s">
         <v>65</v>
@@ -8226,7 +8230,7 @@
       </c>
       <c r="E77" t="s"/>
       <c r="F77" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G77" s="3" t="n">
         <v>2958465</v>
@@ -8247,7 +8251,7 @@
         <v>65</v>
       </c>
       <c r="O77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P77" t="s">
         <v>65</v>
@@ -8277,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="Y77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z77" t="s"/>
       <c r="AA77" t="s">
@@ -8323,7 +8327,7 @@
       </c>
       <c r="E78" t="s"/>
       <c r="F78" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G78" s="3" t="n">
         <v>2958465</v>
@@ -8344,7 +8348,7 @@
         <v>65</v>
       </c>
       <c r="O78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P78" t="s">
         <v>65</v>
@@ -8374,11 +8378,11 @@
         <v>0</v>
       </c>
       <c r="Y78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z78" t="s"/>
       <c r="AA78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AB78" s="3" t="n">
         <v>1</v>
@@ -8393,7 +8397,7 @@
         <v>2</v>
       </c>
       <c r="AF78" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG78" t="s">
         <v>42</v>
@@ -8420,7 +8424,7 @@
       </c>
       <c r="E79" t="s"/>
       <c r="F79" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G79" s="3" t="n">
         <v>2958465</v>
@@ -8441,7 +8445,7 @@
         <v>65</v>
       </c>
       <c r="O79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P79" t="s">
         <v>65</v>
@@ -8471,11 +8475,11 @@
         <v>0</v>
       </c>
       <c r="Y79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Z79" t="s"/>
       <c r="AA79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AB79" s="3" t="n">
         <v>1</v>
@@ -8490,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="AF79" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG79" t="s">
         <v>42</v>
@@ -8517,7 +8521,7 @@
       </c>
       <c r="E80" t="s"/>
       <c r="F80" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>2958465</v>
@@ -8538,7 +8542,7 @@
         <v>65</v>
       </c>
       <c r="O80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P80" t="s">
         <v>65</v>
@@ -8568,11 +8572,11 @@
         <v>0</v>
       </c>
       <c r="Y80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z80" t="s"/>
       <c r="AA80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AB80" s="3" t="n">
         <v>1</v>
@@ -8587,7 +8591,7 @@
         <v>2</v>
       </c>
       <c r="AF80" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s">
         <v>42</v>
@@ -8614,7 +8618,7 @@
       </c>
       <c r="E81" t="s"/>
       <c r="F81" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G81" s="3" t="n">
         <v>2958465</v>
@@ -8711,7 +8715,7 @@
       </c>
       <c r="E82" t="s"/>
       <c r="F82" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G82" s="3" t="n">
         <v>2958465</v>
@@ -8781,7 +8785,7 @@
         <v>2</v>
       </c>
       <c r="AF82" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG82" t="s">
         <v>42</v>
@@ -8808,7 +8812,7 @@
       </c>
       <c r="E83" t="s"/>
       <c r="F83" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G83" s="3" t="n">
         <v>2958465</v>
@@ -8878,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="AF83" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG83" t="s">
         <v>42</v>
@@ -8905,7 +8909,7 @@
       </c>
       <c r="E84" t="s"/>
       <c r="F84" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G84" s="3" t="n">
         <v>2958465</v>
@@ -8975,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="AF84" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG84" t="s">
         <v>42</v>
@@ -9002,7 +9006,7 @@
       </c>
       <c r="E85" t="s"/>
       <c r="F85" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G85" s="3" t="n">
         <v>2958465</v>
@@ -9099,7 +9103,7 @@
       </c>
       <c r="E86" t="s"/>
       <c r="F86" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G86" s="3" t="n">
         <v>2958465</v>
@@ -9169,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="AF86" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG86" t="s">
         <v>42</v>
@@ -9196,7 +9200,7 @@
       </c>
       <c r="E87" t="s"/>
       <c r="F87" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G87" s="3" t="n">
         <v>2958465</v>
@@ -9266,7 +9270,7 @@
         <v>2</v>
       </c>
       <c r="AF87" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG87" t="s">
         <v>42</v>
@@ -9293,7 +9297,7 @@
       </c>
       <c r="E88" t="s"/>
       <c r="F88" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G88" s="3" t="n">
         <v>2958465</v>
@@ -9363,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="AF88" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG88" t="s">
         <v>42</v>
@@ -9390,7 +9394,7 @@
       </c>
       <c r="E89" t="s"/>
       <c r="F89" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G89" s="3" t="n">
         <v>2958465</v>
@@ -9487,7 +9491,7 @@
       </c>
       <c r="E90" t="s"/>
       <c r="F90" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G90" s="3" t="n">
         <v>2958465</v>
@@ -9557,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="AF90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG90" t="s">
         <v>42</v>
@@ -9584,7 +9588,7 @@
       </c>
       <c r="E91" t="s"/>
       <c r="F91" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G91" s="3" t="n">
         <v>2958465</v>
@@ -9654,7 +9658,7 @@
         <v>2</v>
       </c>
       <c r="AF91" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG91" t="s">
         <v>42</v>
@@ -9681,7 +9685,7 @@
       </c>
       <c r="E92" t="s"/>
       <c r="F92" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G92" s="3" t="n">
         <v>2958465</v>
@@ -9751,7 +9755,7 @@
         <v>2</v>
       </c>
       <c r="AF92" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG92" t="s">
         <v>42</v>
@@ -9778,7 +9782,7 @@
       </c>
       <c r="E93" t="s"/>
       <c r="F93" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G93" s="3" t="n">
         <v>2958465</v>
@@ -9875,7 +9879,7 @@
       </c>
       <c r="E94" t="s"/>
       <c r="F94" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G94" s="3" t="n">
         <v>2958465</v>
@@ -9945,7 +9949,7 @@
         <v>2</v>
       </c>
       <c r="AF94" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG94" t="s">
         <v>42</v>
@@ -9972,7 +9976,7 @@
       </c>
       <c r="E95" t="s"/>
       <c r="F95" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G95" s="3" t="n">
         <v>2958465</v>
@@ -10042,7 +10046,7 @@
         <v>2</v>
       </c>
       <c r="AF95" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG95" t="s">
         <v>42</v>
@@ -10069,7 +10073,7 @@
       </c>
       <c r="E96" t="s"/>
       <c r="F96" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G96" s="3" t="n">
         <v>2958465</v>
@@ -10139,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="AF96" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG96" t="s">
         <v>42</v>
@@ -10166,7 +10170,7 @@
       </c>
       <c r="E97" t="s"/>
       <c r="F97" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G97" s="3" t="n">
         <v>2958465</v>
@@ -10263,7 +10267,7 @@
       </c>
       <c r="E98" t="s"/>
       <c r="F98" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G98" s="3" t="n">
         <v>2958465</v>
@@ -10333,7 +10337,7 @@
         <v>2</v>
       </c>
       <c r="AF98" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG98" t="s">
         <v>42</v>
@@ -10360,7 +10364,7 @@
       </c>
       <c r="E99" t="s"/>
       <c r="F99" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G99" s="3" t="n">
         <v>2958465</v>
@@ -10430,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="AF99" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG99" t="s">
         <v>42</v>
@@ -10457,7 +10461,7 @@
       </c>
       <c r="E100" t="s"/>
       <c r="F100" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G100" s="3" t="n">
         <v>2958465</v>
@@ -10527,7 +10531,7 @@
         <v>2</v>
       </c>
       <c r="AF100" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG100" t="s">
         <v>42</v>
@@ -10554,7 +10558,7 @@
       </c>
       <c r="E101" t="s"/>
       <c r="F101" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G101" s="3" t="n">
         <v>2958465</v>
@@ -10651,7 +10655,7 @@
       </c>
       <c r="E102" t="s"/>
       <c r="F102" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G102" s="3" t="n">
         <v>2958465</v>
@@ -10721,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="AF102" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG102" t="s">
         <v>42</v>
@@ -10748,7 +10752,7 @@
       </c>
       <c r="E103" t="s"/>
       <c r="F103" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G103" s="3" t="n">
         <v>2958465</v>
@@ -10818,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="AF103" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG103" t="s">
         <v>42</v>
@@ -10845,7 +10849,7 @@
       </c>
       <c r="E104" t="s"/>
       <c r="F104" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G104" s="3" t="n">
         <v>2958465</v>
@@ -10915,7 +10919,7 @@
         <v>2</v>
       </c>
       <c r="AF104" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG104" t="s">
         <v>42</v>
@@ -10942,7 +10946,7 @@
       </c>
       <c r="E105" t="s"/>
       <c r="F105" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G105" s="3" t="n">
         <v>2958465</v>
@@ -11039,7 +11043,7 @@
       </c>
       <c r="E106" t="s"/>
       <c r="F106" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G106" s="3" t="n">
         <v>2958465</v>
@@ -11109,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="AF106" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG106" t="s">
         <v>42</v>
@@ -11136,7 +11140,7 @@
       </c>
       <c r="E107" t="s"/>
       <c r="F107" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G107" s="3" t="n">
         <v>2958465</v>
@@ -11206,7 +11210,7 @@
         <v>2</v>
       </c>
       <c r="AF107" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG107" t="s">
         <v>42</v>
@@ -11233,7 +11237,7 @@
       </c>
       <c r="E108" t="s"/>
       <c r="F108" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G108" s="3" t="n">
         <v>2958465</v>
@@ -11303,7 +11307,7 @@
         <v>2</v>
       </c>
       <c r="AF108" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG108" t="s">
         <v>42</v>
@@ -11330,7 +11334,7 @@
       </c>
       <c r="E109" t="s"/>
       <c r="F109" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G109" s="3" t="n">
         <v>2958465</v>
@@ -11427,7 +11431,7 @@
       </c>
       <c r="E110" t="s"/>
       <c r="F110" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G110" s="3" t="n">
         <v>2958465</v>
@@ -11497,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="AF110" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG110" t="s">
         <v>42</v>
@@ -11524,7 +11528,7 @@
       </c>
       <c r="E111" t="s"/>
       <c r="F111" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G111" s="3" t="n">
         <v>2958465</v>
@@ -11594,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="AF111" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG111" t="s">
         <v>42</v>
@@ -11621,7 +11625,7 @@
       </c>
       <c r="E112" t="s"/>
       <c r="F112" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G112" s="3" t="n">
         <v>2958465</v>
@@ -11691,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="AF112" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG112" t="s">
         <v>42</v>
@@ -11718,7 +11722,7 @@
       </c>
       <c r="E113" t="s"/>
       <c r="F113" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G113" s="3" t="n">
         <v>2958465</v>
@@ -11815,7 +11819,7 @@
       </c>
       <c r="E114" t="s"/>
       <c r="F114" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G114" s="3" t="n">
         <v>2958465</v>
@@ -11885,7 +11889,7 @@
         <v>2</v>
       </c>
       <c r="AF114" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG114" t="s">
         <v>42</v>
@@ -11912,7 +11916,7 @@
       </c>
       <c r="E115" t="s"/>
       <c r="F115" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G115" s="3" t="n">
         <v>2958465</v>
@@ -11982,7 +11986,7 @@
         <v>2</v>
       </c>
       <c r="AF115" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG115" t="s">
         <v>42</v>
@@ -12009,7 +12013,7 @@
       </c>
       <c r="E116" t="s"/>
       <c r="F116" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G116" s="3" t="n">
         <v>2958465</v>
@@ -12079,7 +12083,7 @@
         <v>2</v>
       </c>
       <c r="AF116" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG116" t="s">
         <v>42</v>
@@ -12106,7 +12110,7 @@
       </c>
       <c r="E117" t="s"/>
       <c r="F117" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G117" s="3" t="n">
         <v>2958465</v>
@@ -12203,7 +12207,7 @@
       </c>
       <c r="E118" t="s"/>
       <c r="F118" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G118" s="3" t="n">
         <v>2958465</v>
@@ -12273,7 +12277,7 @@
         <v>2</v>
       </c>
       <c r="AF118" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG118" t="s">
         <v>42</v>
@@ -12300,7 +12304,7 @@
       </c>
       <c r="E119" t="s"/>
       <c r="F119" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G119" s="3" t="n">
         <v>2958465</v>
@@ -12370,7 +12374,7 @@
         <v>2</v>
       </c>
       <c r="AF119" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG119" t="s">
         <v>42</v>
@@ -12397,7 +12401,7 @@
       </c>
       <c r="E120" t="s"/>
       <c r="F120" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G120" s="3" t="n">
         <v>2958465</v>
@@ -12467,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AF120" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG120" t="s">
         <v>42</v>
@@ -12494,7 +12498,7 @@
       </c>
       <c r="E121" t="s"/>
       <c r="F121" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G121" s="3" t="n">
         <v>2958465</v>
@@ -12591,7 +12595,7 @@
       </c>
       <c r="E122" t="s"/>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G122" s="3" t="n">
         <v>2958465</v>
@@ -12661,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="AF122" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG122" t="s">
         <v>42</v>
@@ -12688,7 +12692,7 @@
       </c>
       <c r="E123" t="s"/>
       <c r="F123" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G123" s="3" t="n">
         <v>2958465</v>
@@ -12758,7 +12762,7 @@
         <v>2</v>
       </c>
       <c r="AF123" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG123" t="s">
         <v>42</v>
@@ -12785,7 +12789,7 @@
       </c>
       <c r="E124" t="s"/>
       <c r="F124" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G124" s="3" t="n">
         <v>2958465</v>
@@ -12855,7 +12859,7 @@
         <v>2</v>
       </c>
       <c r="AF124" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG124" t="s">
         <v>42</v>
@@ -12882,7 +12886,7 @@
       </c>
       <c r="E125" t="s"/>
       <c r="F125" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G125" s="3" t="n">
         <v>2958465</v>
@@ -12979,7 +12983,7 @@
       </c>
       <c r="E126" t="s"/>
       <c r="F126" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G126" s="3" t="n">
         <v>2958465</v>
@@ -13049,7 +13053,7 @@
         <v>2</v>
       </c>
       <c r="AF126" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG126" t="s">
         <v>42</v>
@@ -13076,7 +13080,7 @@
       </c>
       <c r="E127" t="s"/>
       <c r="F127" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G127" s="3" t="n">
         <v>2958465</v>
@@ -13146,7 +13150,7 @@
         <v>2</v>
       </c>
       <c r="AF127" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG127" t="s">
         <v>42</v>
@@ -13173,7 +13177,7 @@
       </c>
       <c r="E128" t="s"/>
       <c r="F128" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G128" s="3" t="n">
         <v>2958465</v>
@@ -13243,7 +13247,7 @@
         <v>2</v>
       </c>
       <c r="AF128" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG128" t="s">
         <v>42</v>
@@ -13270,7 +13274,7 @@
       </c>
       <c r="E129" t="s"/>
       <c r="F129" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G129" s="3" t="n">
         <v>2958465</v>
@@ -13367,7 +13371,7 @@
       </c>
       <c r="E130" t="s"/>
       <c r="F130" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" s="3" t="n">
         <v>2958465</v>
@@ -13437,7 +13441,7 @@
         <v>2</v>
       </c>
       <c r="AF130" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG130" t="s">
         <v>42</v>
@@ -13464,7 +13468,7 @@
       </c>
       <c r="E131" t="s"/>
       <c r="F131" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G131" s="3" t="n">
         <v>2958465</v>
@@ -13534,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="AF131" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG131" t="s">
         <v>42</v>
@@ -13561,7 +13565,7 @@
       </c>
       <c r="E132" t="s"/>
       <c r="F132" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" s="3" t="n">
         <v>2958465</v>
@@ -13631,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="AF132" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG132" t="s">
         <v>42</v>
@@ -13658,7 +13662,7 @@
       </c>
       <c r="E133" t="s"/>
       <c r="F133" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G133" s="3" t="n">
         <v>2958465</v>
@@ -13755,7 +13759,7 @@
       </c>
       <c r="E134" t="s"/>
       <c r="F134" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G134" s="3" t="n">
         <v>2958465</v>
@@ -13825,7 +13829,7 @@
         <v>2</v>
       </c>
       <c r="AF134" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG134" t="s">
         <v>42</v>
@@ -13852,7 +13856,7 @@
       </c>
       <c r="E135" t="s"/>
       <c r="F135" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G135" s="3" t="n">
         <v>2958465</v>
@@ -13922,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="AF135" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG135" t="s">
         <v>42</v>
@@ -13949,7 +13953,7 @@
       </c>
       <c r="E136" t="s"/>
       <c r="F136" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G136" s="3" t="n">
         <v>2958465</v>
@@ -14019,7 +14023,7 @@
         <v>2</v>
       </c>
       <c r="AF136" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG136" t="s">
         <v>42</v>
@@ -14046,7 +14050,7 @@
       </c>
       <c r="E137" t="s"/>
       <c r="F137" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G137" s="3" t="n">
         <v>2958465</v>
@@ -14143,7 +14147,7 @@
       </c>
       <c r="E138" t="s"/>
       <c r="F138" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G138" s="3" t="n">
         <v>2958465</v>
@@ -14213,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AF138" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG138" t="s">
         <v>42</v>
@@ -14240,7 +14244,7 @@
       </c>
       <c r="E139" t="s"/>
       <c r="F139" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G139" s="3" t="n">
         <v>2958465</v>
@@ -14310,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="AF139" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG139" t="s">
         <v>42</v>
@@ -14337,7 +14341,7 @@
       </c>
       <c r="E140" t="s"/>
       <c r="F140" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" s="3" t="n">
         <v>2958465</v>
@@ -14407,7 +14411,7 @@
         <v>2</v>
       </c>
       <c r="AF140" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG140" t="s">
         <v>42</v>
@@ -14416,6 +14420,394 @@
         <v>65</v>
       </c>
       <c r="AI140" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s"/>
+      <c r="F141" t="n">
+        <v>265</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s"/>
+      <c r="K141" t="s">
+        <v>53</v>
+      </c>
+      <c r="L141" t="s">
+        <v>65</v>
+      </c>
+      <c r="M141" t="s">
+        <v>65</v>
+      </c>
+      <c r="N141" t="s">
+        <v>65</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+      <c r="P141" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>65</v>
+      </c>
+      <c r="R141" t="s">
+        <v>67</v>
+      </c>
+      <c r="S141" t="s">
+        <v>65</v>
+      </c>
+      <c r="T141" t="s">
+        <v>65</v>
+      </c>
+      <c r="U141" t="s">
+        <v>65</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z141" t="s"/>
+      <c r="AA141" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB141" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35">
+      <c r="A142" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="s"/>
+      <c r="F142" t="n">
+        <v>266</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s"/>
+      <c r="K142" t="s">
+        <v>53</v>
+      </c>
+      <c r="L142" t="s">
+        <v>65</v>
+      </c>
+      <c r="M142" t="s">
+        <v>65</v>
+      </c>
+      <c r="N142" t="s">
+        <v>65</v>
+      </c>
+      <c r="O142" t="s">
+        <v>196</v>
+      </c>
+      <c r="P142" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>65</v>
+      </c>
+      <c r="R142" t="s">
+        <v>67</v>
+      </c>
+      <c r="S142" t="s">
+        <v>65</v>
+      </c>
+      <c r="T142" t="s">
+        <v>65</v>
+      </c>
+      <c r="U142" t="s">
+        <v>65</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z142" t="s"/>
+      <c r="AA142" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35">
+      <c r="A143" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" t="s"/>
+      <c r="F143" t="n">
+        <v>267</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s"/>
+      <c r="K143" t="s">
+        <v>53</v>
+      </c>
+      <c r="L143" t="s">
+        <v>65</v>
+      </c>
+      <c r="M143" t="s">
+        <v>65</v>
+      </c>
+      <c r="N143" t="s">
+        <v>65</v>
+      </c>
+      <c r="O143" t="s">
+        <v>197</v>
+      </c>
+      <c r="P143" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>65</v>
+      </c>
+      <c r="R143" t="s">
+        <v>67</v>
+      </c>
+      <c r="S143" t="s">
+        <v>65</v>
+      </c>
+      <c r="T143" t="s">
+        <v>65</v>
+      </c>
+      <c r="U143" t="s">
+        <v>65</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z143" t="s"/>
+      <c r="AA143" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" t="s"/>
+      <c r="F144" t="n">
+        <v>268</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s"/>
+      <c r="K144" t="s">
+        <v>53</v>
+      </c>
+      <c r="L144" t="s">
+        <v>65</v>
+      </c>
+      <c r="M144" t="s">
+        <v>65</v>
+      </c>
+      <c r="N144" t="s">
+        <v>65</v>
+      </c>
+      <c r="O144" t="s">
+        <v>198</v>
+      </c>
+      <c r="P144" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>65</v>
+      </c>
+      <c r="R144" t="s">
+        <v>67</v>
+      </c>
+      <c r="S144" t="s">
+        <v>65</v>
+      </c>
+      <c r="T144" t="s">
+        <v>65</v>
+      </c>
+      <c r="U144" t="s">
+        <v>65</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z144" t="s"/>
+      <c r="AA144" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI144" t="s">
         <v>65</v>
       </c>
     </row>
